--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2051.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2051.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157744885762764</v>
+        <v>1.310915589332581</v>
       </c>
       <c r="B1">
-        <v>2.577727859131738</v>
+        <v>2.08903980255127</v>
       </c>
       <c r="C1">
-        <v>5.410134868353903</v>
+        <v>5.093509197235107</v>
       </c>
       <c r="D1">
-        <v>2.631447488911322</v>
+        <v>1.985970139503479</v>
       </c>
       <c r="E1">
-        <v>1.212519204135086</v>
+        <v>1.079737544059753</v>
       </c>
     </row>
   </sheetData>
